--- a/temp/templateCourseStudents.xlsx
+++ b/temp/templateCourseStudents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA01E927-14EE-4056-B53A-6F4C65D4E301}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5381E4-7114-47BD-9EEA-DDEC92F766CB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DNI</t>
   </si>
@@ -55,32 +55,26 @@
     <t>Programa De Estudios</t>
   </si>
   <si>
-    <t>enfermeria</t>
-  </si>
-  <si>
-    <t>mecanica</t>
-  </si>
-  <si>
-    <t>contabilidad</t>
-  </si>
-  <si>
-    <t>otro programa</t>
-  </si>
-  <si>
-    <t>computación e informática</t>
+    <t>Computación E Informática</t>
+  </si>
+  <si>
+    <t>Mecánica Agricola</t>
+  </si>
+  <si>
+    <t>PALOMINO ZUBILETA elberth</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t>ANTEZANA YANA, Paul Yoel</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +98,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -134,6 +134,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +452,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,22 +494,45 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>73975755</v>
+        <v>48692702</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>977898402</v>
+        <v>956231548</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G2">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>73975755</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>965842136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>2018</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -522,7 +546,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -541,7 +565,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -549,34 +573,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
